--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +619,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,39%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,71%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>12,6%</t>
         </is>
@@ -724,62 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,51; 5,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,59</t>
+          <t>1,98; 4,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,75</t>
+          <t>7,13; 11,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,37</t>
+          <t>6,99; 11,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,01; 12,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,5</t>
+          <t>12,42; 18,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 12,57</t>
+          <t>5,17; 7,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 17,93</t>
+          <t>5,46; 8,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>5,17; 7,78</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 8,2</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>10,88; 14,15</t>
+          <t>10,74; 14,16</t>
         </is>
       </c>
     </row>
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>9,42%</t>
         </is>
@@ -864,62 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,27; 4,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,61</t>
+          <t>2,02; 4,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,1</t>
+          <t>2,84; 7,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,24</t>
+          <t>7,09; 10,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,45; 10,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,66</t>
+          <t>12,93; 16,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 10,09</t>
+          <t>5,07; 7,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 16,26</t>
+          <t>4,54; 6,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 7,28</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 6,78</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 11,02</t>
+          <t>6,34; 10,96</t>
         </is>
       </c>
     </row>
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,04%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>8,42%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,44; 5,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,37</t>
+          <t>1,73; 4,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,28</t>
+          <t>4,8; 8,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,68</t>
+          <t>6,36; 10,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,89; 9,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,47</t>
+          <t>5,33; 13,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,13</t>
+          <t>4,88; 7,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,55</t>
+          <t>4,23; 6,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,9; 7,32</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 6,63</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 10,21</t>
+          <t>5,38; 10,0</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15,74%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>6,88%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,74%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,88%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>11,68%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,45; 5,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,28</t>
+          <t>2,34; 4,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,81</t>
+          <t>5,42; 8,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,38</t>
+          <t>8,67; 12,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,05; 11,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,51</t>
+          <t>12,62; 17,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,99</t>
+          <t>6,12; 8,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,88; 18,15</t>
+          <t>5,75; 8,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 8,48</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>5,75; 8,14</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>10,08; 12,96</t>
+          <t>10,22; 13,16</t>
         </is>
       </c>
     </row>
@@ -1216,60 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>10,43%</t>
         </is>
@@ -1284,62 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,91; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,36</t>
+          <t>2,53; 3,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,81</t>
+          <t>5,16; 7,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,68</t>
+          <t>8,24; 10,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,94; 10,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,44</t>
+          <t>11,25; 15,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,02</t>
+          <t>5,86; 7,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,39</t>
+          <t>5,49; 6,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 7,12</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 6,72</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 11,35</t>
+          <t>9,1; 11,33</t>
         </is>
       </c>
     </row>
@@ -1352,15 +1179,974 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25892</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22172</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57440</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>63640</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>68226</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>114054</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>89532</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>90399</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>171494</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17679; 38532</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13357; 32299</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45306; 70683</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>48724; 80525</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53925; 86992</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>90096; 130798</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72375; 110356</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73587; 110272</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>146130; 192640</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33939</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29882</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>63376</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>90453</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>85475</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>139200</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>124392</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>115357</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>202577</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23149; 47361</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20605; 42910</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33905; 86550</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73167; 110838</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>67283; 106376</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>123944; 156437</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>104038; 145620</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>93864; 137141</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>136454; 235785</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28081</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21089</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45947</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64675</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>60604</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>92044</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>92756</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81693</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>137992</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18496; 40612</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13123; 32388</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33850; 59010</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>49395; 80121</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>46233; 78370</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>49738; 126249</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>74890; 113693</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>65316; 101886</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>88058; 163764</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34395</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32946</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>63767</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111266</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>103360</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>172295</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>145661</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>136306</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>236063</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23254; 47475</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21930; 45346</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>50196; 78941</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>91164; 133153</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>84013; 124323</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>138128; 196730</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>122458; 171765</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>113972; 163751</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>206592; 266042</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>122307</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>106089</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>230531</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>330034</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>317665</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>517594</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>452341</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>423754</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>748125</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99877; 145479</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>85975; 127247</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>178594; 261829</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>293090; 366377</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>281573; 356245</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>417804; 567954</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>409542; 495356</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>380773; 462015</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>652587; 812477</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
